--- a/src/test/Files/excel/testdata.xlsx
+++ b/src/test/Files/excel/testdata.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="loginTest" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="createCompany" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t xml:space="preserve">TCID</t>
   </si>
@@ -35,6 +36,12 @@
     <t xml:space="preserve">Y</t>
   </si>
   <si>
+    <t xml:space="preserve">companymenu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">createCompany</t>
+  </si>
+  <si>
     <t xml:space="preserve">email</t>
   </si>
   <si>
@@ -45,6 +52,24 @@
   </si>
   <si>
     <t xml:space="preserve">Power123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPANYNAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPANYCODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPANYDOMAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simpglobal_Solutio0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIMGSQ0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gmail.com</t>
   </si>
 </sst>
 </file>
@@ -222,10 +247,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="105" zoomScaleNormal="105" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="105" zoomScaleNormal="105" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -246,6 +271,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -279,18 +320,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -305,4 +346,55 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.43"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>